--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.472</v>
+        <v>6.127</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.369999999999999</v>
+        <v>5.661</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.034</v>
+        <v>9.379000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.378</v>
+        <v>-8.098000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.666</v>
+        <v>7.886</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.774000000000001</v>
+        <v>-6.969000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.474</v>
+        <v>5.976999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.454</v>
+        <v>5.630000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.348000000000001</v>
+        <v>-7.986000000000002</v>
       </c>
     </row>
     <row r="29">
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.473999999999999</v>
+        <v>5.519</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.758000000000001</v>
+        <v>-7.540999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.046000000000001</v>
+        <v>-7.496</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.99</v>
+        <v>-7.572</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.348000000000001</v>
+        <v>-8.425000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.222</v>
+        <v>-8.199000000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.23</v>
+        <v>5.706</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.602</v>
+        <v>-8.343999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.614000000000001</v>
+        <v>-8.239000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>5.034000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.608000000000001</v>
+        <v>4.85</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.218</v>
+        <v>5.411</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.843999999999999</v>
+        <v>-7.026999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.394</v>
+        <v>5.889</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.109999999999999</v>
+        <v>5.473999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.459999999999999</v>
+        <v>-8.252000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.331999999999999</v>
+        <v>-8.177000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>6.472</v>
+        <v>5.601000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.91</v>
+        <v>5.369000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.898000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.546000000000001</v>
+        <v>5.267</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
